--- a/демо/Документы заказчика/Отчет по оплате.xlsx
+++ b/демо/Документы заказчика/Отчет по оплате.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10a\Desktop\PM\демо\Документы заказчика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE3B94B-93B2-4E8B-9821-C2E8990ADE74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181373A2-069B-415B-8663-3E30EECFC3CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
